--- a/data/trans_orig/IP44S1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP44S1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE6D30F7-A779-4A67-9B8B-86A17C7976A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8DBF214-D86B-496B-B33C-12B4E06A4DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15C5A981-1DD6-4D13-B01D-254F0DE5068C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E835101-4034-4D07-A0A8-A20CEF90B91F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="115">
   <si>
     <t>Adultos según si han tenido o no algún retraso en el pago de recibos como en 2023 (Tasa respuesta: 4,74%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>74,46%</t>
   </si>
   <si>
-    <t>28,05%</t>
+    <t>23,69%</t>
   </si>
   <si>
     <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
@@ -107,7 +107,7 @@
     <t>25,54%</t>
   </si>
   <si>
-    <t>71,95%</t>
+    <t>76,31%</t>
   </si>
   <si>
     <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
@@ -140,16 +140,16 @@
     <t>91,6%</t>
   </si>
   <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>80,62%</t>
+    <t>79,25%</t>
   </si>
   <si>
     <t>98,0%</t>
@@ -158,34 +158,34 @@
     <t>92,14%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>7,5%</t>
+    <t>7,01%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>13,92%</t>
+    <t>10,31%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>5,69%</t>
+    <t>5,94%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>9,34%</t>
+    <t>8,86%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -194,37 +194,40 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>4,63%</t>
+    <t>4,92%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>16,98%</t>
+    <t>15,08%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>17,06%</t>
+    <t>17,68%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>10,23%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>13,33%</t>
+    <t>13,77%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>11,42%</t>
+    <t>7,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -233,37 +236,37 @@
     <t>86,74%</t>
   </si>
   <si>
-    <t>48,42%</t>
+    <t>42,93%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>53,16%</t>
+    <t>52,02%</t>
   </si>
   <si>
     <t>89,2%</t>
   </si>
   <si>
-    <t>60,97%</t>
+    <t>57,22%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>51,58%</t>
+    <t>57,07%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>46,84%</t>
+    <t>47,98%</t>
   </si>
   <si>
     <t>10,8%</t>
   </si>
   <si>
-    <t>39,03%</t>
+    <t>42,78%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -278,61 +281,61 @@
     <t>89,82%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>90,55%</t>
   </si>
   <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>6,72%</t>
+    <t>6,38%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -341,40 +344,40 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>3,34%</t>
+    <t>4,06%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>11,21%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>12,0%</t>
+    <t>13,28%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>10,62%</t>
+    <t>9,13%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>5,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -789,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6A14F8-F5F8-4B92-BC9C-A7CFF0017607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE01903-D15B-4B94-A499-7DE2FBCFF6C0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1407,10 +1410,10 @@
         <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1425,13 +1428,13 @@
         <v>616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1455,13 +1458,13 @@
         <v>616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,7 +1520,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1529,10 +1532,10 @@
         <v>5702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1544,10 +1547,10 @@
         <v>4421</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1559,10 +1562,10 @@
         <v>10123</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -1580,13 +1583,13 @@
         <v>872</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1595,13 +1598,13 @@
         <v>354</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1610,13 +1613,13 @@
         <v>1226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1637,7 +1640,7 @@
         <v>25</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1652,7 +1655,7 @@
         <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1667,7 +1670,7 @@
         <v>25</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,7 +1691,7 @@
         <v>25</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1703,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1718,7 +1721,7 @@
         <v>25</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1754,7 +1757,7 @@
         <v>25</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1769,7 +1772,7 @@
         <v>25</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,13 +1840,13 @@
         <v>31275</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -1852,13 +1855,13 @@
         <v>22063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -1867,13 +1870,13 @@
         <v>53337</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1891,13 @@
         <v>1809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -1903,13 +1906,13 @@
         <v>1390</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -1918,13 +1921,13 @@
         <v>3199</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,13 +1942,13 @@
         <v>388</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -1960,7 +1963,7 @@
         <v>25</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -1969,13 +1972,13 @@
         <v>388</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +1993,13 @@
         <v>730</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2005,13 +2008,13 @@
         <v>913</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2020,13 +2023,13 @@
         <v>1642</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2044,13 @@
         <v>616</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2062,7 +2065,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2071,13 +2074,13 @@
         <v>616</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,7 +2136,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
